--- a/export_abstract2.xlsx
+++ b/export_abstract2.xlsx
@@ -1,38 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$T$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$T$56</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,563 +31,841 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
+    <t>For the quotation opened on October 26, 2020 at 12:00 am</t>
+  </si>
+  <si>
     <t>PR No.:</t>
   </si>
   <si>
+    <t>2020-09-0364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR Date: </t>
+  </si>
+  <si>
+    <t>September 14, 2020</t>
+  </si>
+  <si>
+    <t>Mode of Procurement:</t>
+  </si>
+  <si>
+    <t>Small Value Procurement</t>
+  </si>
+  <si>
     <t>RFQ No.:</t>
   </si>
   <si>
+    <t>2020-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFQ Date: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose: </t>
+  </si>
+  <si>
+    <t>SALINTUBIG IEC Materials</t>
+  </si>
+  <si>
     <t>ABC:</t>
   </si>
   <si>
-    <t xml:space="preserve">PR Date: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFQ Date: </t>
-  </si>
-  <si>
     <t>Office:</t>
   </si>
   <si>
-    <t>Mode of Procurement:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose: </t>
+    <t>ITEM NO.</t>
   </si>
   <si>
     <t>ITEM DESCRIPTION</t>
   </si>
   <si>
+    <t>QTY</t>
+  </si>
+  <si>
     <t>UNIT</t>
   </si>
   <si>
+    <t>ABC Per Item</t>
+  </si>
+  <si>
+    <t>SD Leal Graphics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover and Pages Corporation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorilla Trading
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayumanggi Press, Inc.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glyptic Art Enterprise
+</t>
+  </si>
+  <si>
+    <t>AG3 Colors Printing Press</t>
+  </si>
+  <si>
     <t>Quoted Price Per Item</t>
   </si>
   <si>
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>ABC Per Item</t>
-  </si>
-  <si>
-    <t>For the quotation opened on _______________ at ______ AM/PM</t>
-  </si>
-  <si>
-    <t>ITEM NO.</t>
+    <t>Poster: Palarong Pambata ukol sa COVID19 (DOH/UNICEF) (1)</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>7,922.00</t>
+  </si>
+  <si>
+    <t>15,300.00</t>
+  </si>
+  <si>
+    <t>Poster: Sama Sama Natin Sugpuin ang COVID19 (DOH/UNICEF) (2)</t>
+  </si>
+  <si>
+    <t>6,885.00</t>
+  </si>
+  <si>
+    <t>12,750.00</t>
+  </si>
+  <si>
+    <t>Poster: Sama Sama Natin Sugpuin ang COVID19 (DOH/UNICEF) (3)</t>
+  </si>
+  <si>
+    <t>Poster: Sama Sama Natin Sugpuin ang COVID19 (DOH/UNICEF) (4)</t>
+  </si>
+  <si>
+    <t>Poster: Sama Sama Natin Sugpuin and COVID19 (DOH/ UNICEF) (5)</t>
+  </si>
+  <si>
+    <t>Poster: Sama Sama Natin Sugpuin ang COVID19 (DOH/UNICEF) (6)</t>
+  </si>
+  <si>
+    <t>Poster: Do you wash your hands</t>
+  </si>
+  <si>
+    <t>Poster: When to wash your hands</t>
+  </si>
+  <si>
+    <t>Poster: 20 second hand washing rule</t>
+  </si>
+  <si>
+    <t>Poster: 80% of infections through hands</t>
+  </si>
+  <si>
+    <t>Poster: 16% reduction of respiratory risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster: 50% reduction of diarrheal  diseases </t>
+  </si>
+  <si>
+    <t>Poster: Maximum Prescribed Implementation Timelines</t>
+  </si>
+  <si>
+    <t>6,480.00</t>
+  </si>
+  <si>
+    <t>12,800.00</t>
+  </si>
+  <si>
+    <t>Poster: PIT vs. PMC</t>
+  </si>
+  <si>
+    <t>5,664.00</t>
+  </si>
+  <si>
+    <t>9,280.00</t>
+  </si>
+  <si>
+    <t>Poster: Eligible Projects for Funding</t>
+  </si>
+  <si>
+    <t>6,560.00</t>
+  </si>
+  <si>
+    <t>12,000.00</t>
+  </si>
+  <si>
+    <t>Poster: Levels of Service for Water Supply System</t>
+  </si>
+  <si>
+    <t>6,400.00</t>
+  </si>
+  <si>
+    <t>Poster: LGU Counterpart</t>
+  </si>
+  <si>
+    <t>5,408.00</t>
+  </si>
+  <si>
+    <t>11,200.00</t>
+  </si>
+  <si>
+    <t>Briefer on CapDev Training Program under the AM Program</t>
+  </si>
+  <si>
+    <t>29,440.00</t>
+  </si>
+  <si>
+    <t>28,800.00</t>
+  </si>
+  <si>
+    <t>Briefer on CapDev Training Programs For Water Supply System</t>
+  </si>
+  <si>
+    <t>16,720.00</t>
+  </si>
+  <si>
+    <t>AM Brochures</t>
+  </si>
+  <si>
+    <t>11,520.00</t>
+  </si>
+  <si>
+    <t>Desk Calendar</t>
+  </si>
+  <si>
+    <t>62,000.00</t>
+  </si>
+  <si>
+    <t>72,000.00</t>
+  </si>
+  <si>
+    <t>AM Fact Sheet</t>
+  </si>
+  <si>
+    <t>GRANDTOTAL</t>
+  </si>
+  <si>
+    <t>234,393.00</t>
+  </si>
+  <si>
+    <t>354,005.00</t>
+  </si>
+  <si>
+    <t>Remarks:</t>
+  </si>
+  <si>
+    <t>Based on the above quotation of prices by the different dealers called for on the above articles, the Committee hereby recommends that the award be given to the dealer (s) which offered the lowest</t>
+  </si>
+  <si>
+    <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
+  </si>
+  <si>
+    <t>For Item(s) 1 to 22 to SD Leal Graphics</t>
+  </si>
+  <si>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
+    <t>JOHN M. CEREZO</t>
+  </si>
+  <si>
+    <t>ATTY. JORDAN V. NADAL</t>
+  </si>
+  <si>
+    <t>BAC Chairman</t>
+  </si>
+  <si>
+    <t>BAC Vice Chairman</t>
+  </si>
+  <si>
+    <t>BAC Member</t>
+  </si>
+  <si>
+    <t>GILBERTO L. TUMAMAC</t>
+  </si>
+  <si>
+    <t>JAY-AR T. BELTRAN</t>
+  </si>
+  <si>
+    <t>Alternate BAC Member</t>
+  </si>
+  <si>
+    <t>Eligibility Requirements:</t>
+  </si>
+  <si>
+    <t>Note: In order to be eligible for this procurement, suppliers / service providers must submit together with the quotation / proposal the following eligibility requirements:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          1. Valid Business Permit       2. Latest Income / Business Tax Return       3. PhilGEPS Registration No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="165" formatCode="[$₱-464]#,##0.00;[Red][$₱-464]#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$₱-464]#,##0.00;[Red][$₱-464]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="₱#,##0.00_-"/>
+    <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="8"/>
-      <color theme="1"/>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff0000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd9edf7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd9edf7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6a6d6d"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF6a6d6d"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF6a6d6d"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF6a6d6d"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+  <cellXfs count="70">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="166" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="49" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="166" fillId="5" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381635</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>111573</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="857250" cy="828675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49638B3-4B0A-4951-B564-3AC98A979317}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="1" name="Picture 1" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="45720" y="220980"/>
-          <a:ext cx="861695" cy="827405"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>811066</xdr:colOff>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>22939</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>980198</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>10535</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2400300" cy="733425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15044137" y="403939"/>
-          <a:ext cx="2400704" cy="735989"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -617,44 +880,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -682,31 +945,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -734,23 +980,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -762,262 +991,319 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:T56"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="20" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.7109375" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.85546875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="7.5703125" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.28515625" customWidth="true" style="0"/>
+    <col min="6" max="6" width="6.5703125" customWidth="true" style="0"/>
+    <col min="7" max="7" width="7.140625" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16.7109375" customWidth="true" style="0"/>
+    <col min="10" max="10" width="16.7109375" customWidth="true" style="0"/>
+    <col min="11" max="11" width="16.7109375" customWidth="true" style="0"/>
+    <col min="12" max="12" width="16.7109375" customWidth="true" style="0"/>
+    <col min="13" max="13" width="16.7109375" customWidth="true" style="0"/>
+    <col min="14" max="14" width="16.7109375" customWidth="true" style="0"/>
+    <col min="15" max="15" width="16.7109375" customWidth="true" style="0"/>
+    <col min="16" max="16" width="16.7109375" customWidth="true" style="0"/>
+    <col min="17" max="17" width="16.7109375" customWidth="true" style="0"/>
+    <col min="18" max="18" width="16.7109375" customWidth="true" style="0"/>
+    <col min="19" max="19" width="16.7109375" customWidth="true" style="0"/>
+    <col min="20" max="20" width="16.7109375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:20" customHeight="1" ht="14.45">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" customHeight="1" ht="14.45">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G10" s="22" t="s">
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+    </row>
+    <row r="9" spans="1:20" customHeight="1" ht="24" s="1" customFormat="1">
+      <c r="G9" s="1"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22" t="s">
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="G10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="22" t="s">
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="G11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="33"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M11" s="12"/>
+      <c r="N11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="22"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="C12" s="41"/>
+      <c r="G12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="16">
+        <v>421870</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1033,988 +1319,1806 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:20" customHeight="1" ht="28.5" s="1" customFormat="1">
+      <c r="A14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="29"/>
+    </row>
+    <row r="15" spans="1:20" customHeight="1" ht="27" s="1" customFormat="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" customHeight="1" ht="30" s="6" customFormat="1">
+      <c r="A16" s="44">
+        <v>1</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="46">
+        <v>170</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="47">
+        <v>110</v>
+      </c>
+      <c r="I16" s="59">
+        <v>46.6</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="47">
+        <v>90</v>
+      </c>
+      <c r="L16" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="47">
+        <v>0</v>
+      </c>
+      <c r="N16" s="47">
+        <v>0</v>
+      </c>
+      <c r="O16" s="46">
+        <v>0</v>
+      </c>
+      <c r="P16" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>0</v>
+      </c>
+      <c r="R16" s="46">
+        <v>0</v>
+      </c>
+      <c r="S16" s="46">
+        <v>0</v>
+      </c>
+      <c r="T16" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" customHeight="1" ht="30">
+      <c r="A17" s="44">
+        <v>2</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="46">
+        <v>170</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="47">
+        <v>95</v>
+      </c>
+      <c r="I17" s="59">
+        <v>40.5</v>
+      </c>
+      <c r="J17" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="47">
+        <v>75</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="47">
+        <v>0</v>
+      </c>
+      <c r="N17" s="47">
+        <v>0</v>
+      </c>
+      <c r="O17" s="46">
+        <v>0</v>
+      </c>
+      <c r="P17" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>0</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0</v>
+      </c>
+      <c r="S17" s="46">
+        <v>0</v>
+      </c>
+      <c r="T17" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" customHeight="1" ht="30">
+      <c r="A18" s="44">
+        <v>3</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="46">
+        <v>170</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="47">
+        <v>95</v>
+      </c>
+      <c r="I18" s="59">
+        <v>40.5</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="47">
+        <v>40.5</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="47">
+        <v>0</v>
+      </c>
+      <c r="N18" s="47">
+        <v>0</v>
+      </c>
+      <c r="O18" s="46">
+        <v>0</v>
+      </c>
+      <c r="P18" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>0</v>
+      </c>
+      <c r="R18" s="46">
+        <v>0</v>
+      </c>
+      <c r="S18" s="46">
+        <v>0</v>
+      </c>
+      <c r="T18" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" customHeight="1" ht="30" s="5" customFormat="1">
+      <c r="A19" s="49">
+        <v>4</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="46">
+        <v>170</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="47">
+        <v>95</v>
+      </c>
+      <c r="I19" s="59">
+        <v>40.5</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="47">
+        <v>75</v>
+      </c>
+      <c r="L19" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="47">
+        <v>0</v>
+      </c>
+      <c r="N19" s="47">
+        <v>0</v>
+      </c>
+      <c r="O19" s="46">
+        <v>0</v>
+      </c>
+      <c r="P19" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>0</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0</v>
+      </c>
+      <c r="S19" s="46">
+        <v>0</v>
+      </c>
+      <c r="T19" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" customHeight="1" ht="30">
+      <c r="A20" s="44">
+        <v>5</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="46">
+        <v>170</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="47">
+        <v>95</v>
+      </c>
+      <c r="I20" s="59">
+        <v>40.5</v>
+      </c>
+      <c r="J20" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="47">
+        <v>75</v>
+      </c>
+      <c r="L20" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="47">
+        <v>0</v>
+      </c>
+      <c r="N20" s="47">
+        <v>0</v>
+      </c>
+      <c r="O20" s="46">
+        <v>0</v>
+      </c>
+      <c r="P20" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="46">
+        <v>0</v>
+      </c>
+      <c r="R20" s="46">
+        <v>0</v>
+      </c>
+      <c r="S20" s="46">
+        <v>0</v>
+      </c>
+      <c r="T20" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" customHeight="1" ht="30">
+      <c r="A21" s="44">
+        <v>6</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="46">
+        <v>170</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="47">
+        <v>95</v>
+      </c>
+      <c r="I21" s="59">
+        <v>40.5</v>
+      </c>
+      <c r="J21" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="47">
+        <v>75</v>
+      </c>
+      <c r="L21" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="47">
+        <v>0</v>
+      </c>
+      <c r="N21" s="47">
+        <v>0</v>
+      </c>
+      <c r="O21" s="46">
+        <v>0</v>
+      </c>
+      <c r="P21" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="46">
+        <v>0</v>
+      </c>
+      <c r="R21" s="46">
+        <v>0</v>
+      </c>
+      <c r="S21" s="46">
+        <v>0</v>
+      </c>
+      <c r="T21" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" customHeight="1" ht="19">
+      <c r="A22" s="44">
+        <v>7</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="46">
+        <v>170</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="47">
+        <v>95</v>
+      </c>
+      <c r="I22" s="59">
+        <v>40.5</v>
+      </c>
+      <c r="J22" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="47">
+        <v>75</v>
+      </c>
+      <c r="L22" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="47">
+        <v>0</v>
+      </c>
+      <c r="N22" s="47">
+        <v>0</v>
+      </c>
+      <c r="O22" s="46">
+        <v>0</v>
+      </c>
+      <c r="P22" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="46">
+        <v>0</v>
+      </c>
+      <c r="R22" s="46">
+        <v>0</v>
+      </c>
+      <c r="S22" s="46">
+        <v>0</v>
+      </c>
+      <c r="T22" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" customHeight="1" ht="19">
+      <c r="A23" s="44">
+        <v>8</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="46">
+        <v>170</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="47">
+        <v>95</v>
+      </c>
+      <c r="I23" s="59">
+        <v>40.5</v>
+      </c>
+      <c r="J23" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="47">
+        <v>75</v>
+      </c>
+      <c r="L23" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="47">
+        <v>0</v>
+      </c>
+      <c r="N23" s="47">
+        <v>0</v>
+      </c>
+      <c r="O23" s="46">
+        <v>0</v>
+      </c>
+      <c r="P23" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="46">
+        <v>0</v>
+      </c>
+      <c r="R23" s="46">
+        <v>0</v>
+      </c>
+      <c r="S23" s="46">
+        <v>0</v>
+      </c>
+      <c r="T23" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" customHeight="1" ht="19">
+      <c r="A24" s="44">
+        <v>9</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="46">
+        <v>170</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="47">
+        <v>95</v>
+      </c>
+      <c r="I24" s="59">
+        <v>40.5</v>
+      </c>
+      <c r="J24" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="47">
+        <v>75</v>
+      </c>
+      <c r="L24" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="47">
+        <v>0</v>
+      </c>
+      <c r="N24" s="47">
+        <v>0</v>
+      </c>
+      <c r="O24" s="46">
+        <v>0</v>
+      </c>
+      <c r="P24" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="46">
+        <v>0</v>
+      </c>
+      <c r="R24" s="46">
+        <v>0</v>
+      </c>
+      <c r="S24" s="46">
+        <v>0</v>
+      </c>
+      <c r="T24" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" customHeight="1" ht="30">
+      <c r="A25" s="44">
+        <v>10</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="46">
+        <v>170</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="47">
+        <v>95</v>
+      </c>
+      <c r="I25" s="59">
+        <v>40.5</v>
+      </c>
+      <c r="J25" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="47">
+        <v>75</v>
+      </c>
+      <c r="L25" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="47">
+        <v>0</v>
+      </c>
+      <c r="N25" s="47">
+        <v>0</v>
+      </c>
+      <c r="O25" s="46">
+        <v>0</v>
+      </c>
+      <c r="P25" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="46">
+        <v>0</v>
+      </c>
+      <c r="R25" s="46">
+        <v>0</v>
+      </c>
+      <c r="S25" s="46">
+        <v>0</v>
+      </c>
+      <c r="T25" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" customHeight="1" ht="30">
+      <c r="A26" s="44">
+        <v>11</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="46">
+        <v>170</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="47">
+        <v>95</v>
+      </c>
+      <c r="I26" s="59">
+        <v>40.5</v>
+      </c>
+      <c r="J26" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="47">
+        <v>75</v>
+      </c>
+      <c r="L26" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="47">
+        <v>0</v>
+      </c>
+      <c r="N26" s="47">
+        <v>0</v>
+      </c>
+      <c r="O26" s="46">
+        <v>0</v>
+      </c>
+      <c r="P26" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="46">
+        <v>0</v>
+      </c>
+      <c r="R26" s="46">
+        <v>0</v>
+      </c>
+      <c r="S26" s="46">
+        <v>0</v>
+      </c>
+      <c r="T26" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" customHeight="1" ht="30">
+      <c r="A27" s="44">
         <v>12</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="39" t="s">
+      <c r="B27" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="46">
+        <v>170</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="47">
+        <v>95</v>
+      </c>
+      <c r="I27" s="59">
+        <v>40.5</v>
+      </c>
+      <c r="J27" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="47">
+        <v>75</v>
+      </c>
+      <c r="L27" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="47">
+        <v>0</v>
+      </c>
+      <c r="N27" s="47">
+        <v>0</v>
+      </c>
+      <c r="O27" s="46">
+        <v>0</v>
+      </c>
+      <c r="P27" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="46">
+        <v>0</v>
+      </c>
+      <c r="R27" s="46">
+        <v>0</v>
+      </c>
+      <c r="S27" s="46">
+        <v>0</v>
+      </c>
+      <c r="T27" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" customHeight="1" ht="30">
+      <c r="A28" s="44">
+        <v>13</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="46">
+        <v>160</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="47">
+        <v>100</v>
+      </c>
+      <c r="I28" s="59">
+        <v>40.5</v>
+      </c>
+      <c r="J28" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="47">
+        <v>80</v>
+      </c>
+      <c r="L28" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="47">
+        <v>0</v>
+      </c>
+      <c r="N28" s="47">
+        <v>0</v>
+      </c>
+      <c r="O28" s="46">
+        <v>0</v>
+      </c>
+      <c r="P28" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="46">
+        <v>0</v>
+      </c>
+      <c r="R28" s="46">
+        <v>0</v>
+      </c>
+      <c r="S28" s="46">
+        <v>0</v>
+      </c>
+      <c r="T28" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" customHeight="1" ht="19">
+      <c r="A29" s="44">
+        <v>14</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="46">
+        <v>160</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="46">
+        <v>58.5</v>
+      </c>
+      <c r="I29" s="59">
+        <v>35.4</v>
+      </c>
+      <c r="J29" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="47">
+        <v>58</v>
+      </c>
+      <c r="L29" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="47">
+        <v>0</v>
+      </c>
+      <c r="N29" s="47">
+        <v>0</v>
+      </c>
+      <c r="O29" s="46">
+        <v>0</v>
+      </c>
+      <c r="P29" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="46">
+        <v>0</v>
+      </c>
+      <c r="R29" s="46">
+        <v>0</v>
+      </c>
+      <c r="S29" s="46">
+        <v>0</v>
+      </c>
+      <c r="T29" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" customHeight="1" ht="30">
+      <c r="A30" s="50">
+        <v>15</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="46">
+        <v>160</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="46">
+        <v>89.5</v>
+      </c>
+      <c r="I30" s="60">
+        <v>41</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="46">
+        <v>75</v>
+      </c>
+      <c r="L30" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="46">
+        <v>0</v>
+      </c>
+      <c r="N30" s="46">
+        <v>0</v>
+      </c>
+      <c r="O30" s="46">
+        <v>0</v>
+      </c>
+      <c r="P30" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="46">
+        <v>0</v>
+      </c>
+      <c r="R30" s="46">
+        <v>0</v>
+      </c>
+      <c r="S30" s="46">
+        <v>0</v>
+      </c>
+      <c r="T30" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" customHeight="1" ht="30">
+      <c r="A31" s="52">
         <v>16</v>
       </c>
-      <c r="G14" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="40" t="s">
+      <c r="B31" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="46">
+        <v>160</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="46">
+        <v>54.5</v>
+      </c>
+      <c r="I31" s="60">
+        <v>35.4</v>
+      </c>
+      <c r="J31" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="46">
+        <v>40</v>
+      </c>
+      <c r="L31" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" s="46">
+        <v>0</v>
+      </c>
+      <c r="N31" s="46">
+        <v>0</v>
+      </c>
+      <c r="O31" s="46">
+        <v>0</v>
+      </c>
+      <c r="P31" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="46">
+        <v>0</v>
+      </c>
+      <c r="R31" s="46">
+        <v>0</v>
+      </c>
+      <c r="S31" s="46">
+        <v>0</v>
+      </c>
+      <c r="T31" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" customHeight="1" ht="19">
+      <c r="A32" s="52">
         <v>17</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="T15" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-    </row>
-    <row r="19" spans="1:20" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="B32" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="46">
+        <v>160</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="46">
+        <v>89.5</v>
+      </c>
+      <c r="I32" s="60">
+        <v>33.8</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="46">
+        <v>70</v>
+      </c>
+      <c r="L32" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="46">
+        <v>0</v>
+      </c>
+      <c r="N32" s="46">
+        <v>0</v>
+      </c>
+      <c r="O32" s="46">
+        <v>0</v>
+      </c>
+      <c r="P32" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="46">
+        <v>0</v>
+      </c>
+      <c r="R32" s="46">
+        <v>0</v>
+      </c>
+      <c r="S32" s="46">
+        <v>0</v>
+      </c>
+      <c r="T32" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" customHeight="1" ht="30">
+      <c r="A33" s="58">
+        <v>18</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="46">
+        <v>160</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="46">
+        <v>186.25</v>
+      </c>
+      <c r="I33" s="60">
+        <v>184</v>
+      </c>
+      <c r="J33" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="46">
+        <v>180</v>
+      </c>
+      <c r="L33" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="46">
+        <v>0</v>
+      </c>
+      <c r="N33" s="46">
+        <v>0</v>
+      </c>
+      <c r="O33" s="46">
+        <v>0</v>
+      </c>
+      <c r="P33" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="46">
+        <v>0</v>
+      </c>
+      <c r="R33" s="46">
+        <v>0</v>
+      </c>
+      <c r="S33" s="46">
+        <v>0</v>
+      </c>
+      <c r="T33" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" customHeight="1" ht="30">
+      <c r="A34" s="58">
+        <v>19</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="46">
+        <v>160</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="46">
+        <v>186.25</v>
+      </c>
+      <c r="I34" s="60">
+        <v>104.5</v>
+      </c>
+      <c r="J34" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="46">
+        <v>180</v>
+      </c>
+      <c r="L34" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" s="46">
+        <v>0</v>
+      </c>
+      <c r="N34" s="46">
+        <v>0</v>
+      </c>
+      <c r="O34" s="46">
+        <v>0</v>
+      </c>
+      <c r="P34" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="46">
+        <v>0</v>
+      </c>
+      <c r="R34" s="46">
+        <v>0</v>
+      </c>
+      <c r="S34" s="46">
+        <v>0</v>
+      </c>
+      <c r="T34" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" customHeight="1" ht="19">
+      <c r="A35" s="58">
+        <v>20</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="46">
+        <v>160</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="46">
+        <v>95</v>
+      </c>
+      <c r="I35" s="60">
+        <v>40</v>
+      </c>
+      <c r="J35" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="46">
+        <v>72</v>
+      </c>
+      <c r="L35" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" s="46">
+        <v>0</v>
+      </c>
+      <c r="N35" s="46">
+        <v>0</v>
+      </c>
+      <c r="O35" s="46">
+        <v>0</v>
+      </c>
+      <c r="P35" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="46">
+        <v>0</v>
+      </c>
+      <c r="R35" s="46">
+        <v>0</v>
+      </c>
+      <c r="S35" s="46">
+        <v>0</v>
+      </c>
+      <c r="T35" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" customHeight="1" ht="19">
+      <c r="A36" s="58">
+        <v>21</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="46">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="46">
+        <v>72.8</v>
+      </c>
+      <c r="I36" s="60">
+        <v>62</v>
+      </c>
+      <c r="J36" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="46">
+        <v>72</v>
+      </c>
+      <c r="L36" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" s="46">
+        <v>0</v>
+      </c>
+      <c r="N36" s="46">
+        <v>0</v>
+      </c>
+      <c r="O36" s="46">
+        <v>0</v>
+      </c>
+      <c r="P36" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>0</v>
+      </c>
+      <c r="R36" s="46">
+        <v>0</v>
+      </c>
+      <c r="S36" s="46">
+        <v>0</v>
+      </c>
+      <c r="T36" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" customHeight="1" ht="19">
+      <c r="A37" s="58">
+        <v>22</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="46">
+        <v>160</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="46">
+        <v>95</v>
+      </c>
+      <c r="I37" s="60">
+        <v>40</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="46">
+        <v>72</v>
+      </c>
+      <c r="L37" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="M37" s="46">
+        <v>0</v>
+      </c>
+      <c r="N37" s="46">
+        <v>0</v>
+      </c>
+      <c r="O37" s="46">
+        <v>0</v>
+      </c>
+      <c r="P37" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="46">
+        <v>0</v>
+      </c>
+      <c r="R37" s="46">
+        <v>0</v>
+      </c>
+      <c r="S37" s="46">
+        <v>0</v>
+      </c>
+      <c r="T37" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="56"/>
       <c r="G38" s="56"/>
       <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I38" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="L38" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38" s="46">
+        <v>0</v>
+      </c>
+      <c r="O38" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="R38" s="46">
+        <v>0</v>
+      </c>
+      <c r="S38" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="T38" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="65" t="s">
+        <v>80</v>
+      </c>
       <c r="E47" s="6"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="66" t="s">
+        <v>83</v>
+      </c>
       <c r="E48" s="6"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="69" t="s">
+        <v>89</v>
+      </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="69" t="s">
+        <v>90</v>
+      </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="69" t="s">
+        <v>91</v>
+      </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -2029,7 +3133,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2045,7 +3149,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2061,7 +3165,7 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2077,7 +3181,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2093,7 +3197,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2109,7 +3213,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2125,7 +3229,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2141,7 +3245,7 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2157,7 +3261,7 @@
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2173,7 +3277,7 @@
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2189,7 +3293,7 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2205,7 +3309,7 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2221,7 +3325,7 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2237,7 +3341,7 @@
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2253,7 +3357,7 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2269,7 +3373,7 @@
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2285,7 +3389,7 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2301,7 +3405,7 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2317,7 +3421,7 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2333,7 +3437,7 @@
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2349,7 +3453,7 @@
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2365,7 +3469,7 @@
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2381,7 +3485,7 @@
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2397,7 +3501,7 @@
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2413,7 +3517,7 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2429,7 +3533,7 @@
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2445,7 +3549,7 @@
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2461,7 +3565,7 @@
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2477,7 +3581,7 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2493,7 +3597,7 @@
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2509,7 +3613,7 @@
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2525,7 +3629,7 @@
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2541,7 +3645,7 @@
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2557,7 +3661,7 @@
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2573,7 +3677,7 @@
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2589,7 +3693,7 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2605,7 +3709,7 @@
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2621,7 +3725,7 @@
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2637,7 +3741,7 @@
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2653,7 +3757,7 @@
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2669,7 +3773,7 @@
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2685,7 +3789,7 @@
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2701,7 +3805,7 @@
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -2717,7 +3821,7 @@
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -2733,7 +3837,7 @@
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -2749,7 +3853,7 @@
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -2765,7 +3869,7 @@
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -2781,7 +3885,7 @@
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -2797,7 +3901,7 @@
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -2813,7 +3917,7 @@
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -2829,7 +3933,7 @@
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -2845,7 +3949,7 @@
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -2861,7 +3965,7 @@
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -2877,7 +3981,7 @@
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -2893,7 +3997,7 @@
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -2909,7 +4013,7 @@
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -2925,7 +4029,7 @@
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -2941,7 +4045,7 @@
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -2957,7 +4061,7 @@
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -2973,7 +4077,7 @@
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -2989,7 +4093,7 @@
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -3005,7 +4109,7 @@
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -3021,7 +4125,7 @@
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3037,7 +4141,7 @@
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -3053,7 +4157,7 @@
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -3069,7 +4173,7 @@
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -3085,7 +4189,7 @@
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -3101,7 +4205,7 @@
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -3117,7 +4221,7 @@
       <c r="M125" s="6"/>
       <c r="N125" s="6"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -3133,7 +4237,7 @@
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -3149,7 +4253,7 @@
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -3165,7 +4269,7 @@
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -3181,7 +4285,7 @@
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -3197,7 +4301,7 @@
       <c r="M130" s="6"/>
       <c r="N130" s="6"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -3213,7 +4317,7 @@
       <c r="M131" s="6"/>
       <c r="N131" s="6"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -3229,7 +4333,7 @@
       <c r="M132" s="6"/>
       <c r="N132" s="6"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -3245,7 +4349,7 @@
       <c r="M133" s="6"/>
       <c r="N133" s="6"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -3261,7 +4365,7 @@
       <c r="M134" s="6"/>
       <c r="N134" s="6"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -3277,7 +4381,7 @@
       <c r="M135" s="6"/>
       <c r="N135" s="6"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -3293,7 +4397,7 @@
       <c r="M136" s="6"/>
       <c r="N136" s="6"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -3309,7 +4413,7 @@
       <c r="M137" s="6"/>
       <c r="N137" s="6"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -3325,7 +4429,7 @@
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -3341,7 +4445,7 @@
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -3357,7 +4461,7 @@
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -3373,7 +4477,7 @@
       <c r="M141" s="6"/>
       <c r="N141" s="6"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -3389,7 +4493,7 @@
       <c r="M142" s="6"/>
       <c r="N142" s="6"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -3405,7 +4509,7 @@
       <c r="M143" s="6"/>
       <c r="N143" s="6"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -3421,7 +4525,7 @@
       <c r="M144" s="6"/>
       <c r="N144" s="6"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -3437,7 +4541,7 @@
       <c r="M145" s="6"/>
       <c r="N145" s="6"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -3453,7 +4557,7 @@
       <c r="M146" s="6"/>
       <c r="N146" s="6"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -3469,7 +4573,7 @@
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -3485,7 +4589,7 @@
       <c r="M148" s="6"/>
       <c r="N148" s="6"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -3501,7 +4605,7 @@
       <c r="M149" s="6"/>
       <c r="N149" s="6"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -3517,7 +4621,7 @@
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -3533,7 +4637,7 @@
       <c r="M151" s="6"/>
       <c r="N151" s="6"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -3549,7 +4653,7 @@
       <c r="M152" s="6"/>
       <c r="N152" s="6"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -3565,7 +4669,7 @@
       <c r="M153" s="6"/>
       <c r="N153" s="6"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -3581,7 +4685,7 @@
       <c r="M154" s="6"/>
       <c r="N154" s="6"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -3597,7 +4701,7 @@
       <c r="M155" s="6"/>
       <c r="N155" s="6"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -3613,7 +4717,7 @@
       <c r="M156" s="6"/>
       <c r="N156" s="6"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -3629,7 +4733,7 @@
       <c r="M157" s="6"/>
       <c r="N157" s="6"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -3645,7 +4749,7 @@
       <c r="M158" s="6"/>
       <c r="N158" s="6"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -3661,7 +4765,7 @@
       <c r="M159" s="6"/>
       <c r="N159" s="6"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -3677,7 +4781,7 @@
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -3693,7 +4797,7 @@
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -3709,7 +4813,7 @@
       <c r="M162" s="6"/>
       <c r="N162" s="6"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -3725,7 +4829,7 @@
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -3741,7 +4845,7 @@
       <c r="M164" s="6"/>
       <c r="N164" s="6"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -3757,7 +4861,7 @@
       <c r="M165" s="6"/>
       <c r="N165" s="6"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -3773,7 +4877,7 @@
       <c r="M166" s="6"/>
       <c r="N166" s="6"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -3789,7 +4893,7 @@
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -3805,7 +4909,7 @@
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -3821,7 +4925,7 @@
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -3837,7 +4941,7 @@
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -3853,7 +4957,7 @@
       <c r="M171" s="6"/>
       <c r="N171" s="6"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -3869,7 +4973,7 @@
       <c r="M172" s="6"/>
       <c r="N172" s="6"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -3885,7 +4989,7 @@
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -3901,7 +5005,7 @@
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -3917,7 +5021,7 @@
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -3933,7 +5037,7 @@
       <c r="M176" s="6"/>
       <c r="N176" s="6"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -3949,7 +5053,7 @@
       <c r="M177" s="6"/>
       <c r="N177" s="6"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -3965,7 +5069,7 @@
       <c r="M178" s="6"/>
       <c r="N178" s="6"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -3981,7 +5085,7 @@
       <c r="M179" s="6"/>
       <c r="N179" s="6"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -3997,7 +5101,7 @@
       <c r="M180" s="6"/>
       <c r="N180" s="6"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -4013,7 +5117,7 @@
       <c r="M181" s="6"/>
       <c r="N181" s="6"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -4029,7 +5133,7 @@
       <c r="M182" s="6"/>
       <c r="N182" s="6"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -4045,7 +5149,7 @@
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -4061,7 +5165,7 @@
       <c r="M184" s="6"/>
       <c r="N184" s="6"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -4077,7 +5181,7 @@
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -4093,7 +5197,7 @@
       <c r="M186" s="6"/>
       <c r="N186" s="6"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -4109,7 +5213,7 @@
       <c r="M187" s="6"/>
       <c r="N187" s="6"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -4125,7 +5229,7 @@
       <c r="M188" s="6"/>
       <c r="N188" s="6"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -4141,7 +5245,7 @@
       <c r="M189" s="6"/>
       <c r="N189" s="6"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -4157,7 +5261,7 @@
       <c r="M190" s="6"/>
       <c r="N190" s="6"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -4173,7 +5277,7 @@
       <c r="M191" s="6"/>
       <c r="N191" s="6"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -4189,7 +5293,7 @@
       <c r="M192" s="6"/>
       <c r="N192" s="6"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -4205,7 +5309,7 @@
       <c r="M193" s="6"/>
       <c r="N193" s="6"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -4221,7 +5325,7 @@
       <c r="M194" s="6"/>
       <c r="N194" s="6"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -4237,7 +5341,7 @@
       <c r="M195" s="6"/>
       <c r="N195" s="6"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -4253,7 +5357,7 @@
       <c r="M196" s="6"/>
       <c r="N196" s="6"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -4269,7 +5373,7 @@
       <c r="M197" s="6"/>
       <c r="N197" s="6"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -4285,7 +5389,7 @@
       <c r="M198" s="6"/>
       <c r="N198" s="6"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -4301,7 +5405,7 @@
       <c r="M199" s="6"/>
       <c r="N199" s="6"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -4317,7 +5421,7 @@
       <c r="M200" s="6"/>
       <c r="N200" s="6"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -4334,7 +5438,8 @@
       <c r="N201" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
     <mergeCell ref="B14:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="A14:A15"/>
@@ -4351,15 +5456,53 @@
     <mergeCell ref="J9:O9"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
   </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="61" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-  <headerFooter>
+  <pageSetup paperSize="5" orientation="landscape" scale="61" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
     <oddFooter>&amp;C&amp;"Times New Roman,Bold"&amp;K00-024THIS DOCUMENTED INFORMATION IS CONTROLLED AND NOT TO BE REPRODUCED WITHOUT AUTHORIZATION</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="20" max="55" man="1"/>
+    <brk id="20" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>